--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.8</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT18" t="n">
         <v>1.07</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
         <v>0.64</v>
@@ -4557,7 +4557,7 @@
         <v>1.93</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -4760,7 +4760,7 @@
         <v>0.92</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -5166,7 +5166,7 @@
         <v>2.14</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>2.05</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -6181,7 +6181,7 @@
         <v>1.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT33" t="n">
         <v>1.71</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.07</v>
@@ -7805,7 +7805,7 @@
         <v>2.14</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT38" t="n">
         <v>1.86</v>
@@ -8414,7 +8414,7 @@
         <v>1.07</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8820,7 +8820,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU43" t="n">
         <v>1.57</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.61</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT47" t="n">
         <v>0.79</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT52" t="n">
         <v>1.71</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12068,7 +12068,7 @@
         <v>2.36</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU57" t="n">
         <v>2.18</v>
@@ -12271,7 +12271,7 @@
         <v>1.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU58" t="n">
         <v>2.14</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU62" t="n">
         <v>1.54</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT65" t="n">
         <v>0.86</v>
@@ -15113,7 +15113,7 @@
         <v>1.07</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15519,7 +15519,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU74" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT76" t="n">
         <v>0.71</v>
@@ -16125,7 +16125,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT78" t="n">
         <v>1.21</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16940,7 +16940,7 @@
         <v>1.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU81" t="n">
         <v>1.13</v>
@@ -19170,10 +19170,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19376,7 +19376,7 @@
         <v>1.29</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT94" t="n">
         <v>1.14</v>
@@ -19779,10 +19779,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU95" t="n">
         <v>1.59</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU96" t="n">
         <v>1.83</v>
@@ -20185,7 +20185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT97" t="n">
         <v>1.36</v>
@@ -20594,7 +20594,7 @@
         <v>2.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT110" t="n">
         <v>1.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT111" t="n">
         <v>1.36</v>
@@ -23433,10 +23433,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -23839,10 +23839,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24045,7 +24045,7 @@
         <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU116" t="n">
         <v>2.15</v>
@@ -24248,7 +24248,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -25060,7 +25060,7 @@
         <v>1.36</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26478,10 +26478,10 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -26681,7 +26681,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT129" t="n">
         <v>0.8</v>
@@ -26887,7 +26887,7 @@
         <v>2.14</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT133" t="n">
         <v>1.36</v>
@@ -27699,7 +27699,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT135" t="n">
         <v>1.21</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT136" t="n">
         <v>0.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU139" t="n">
         <v>1.49</v>
@@ -28917,7 +28917,7 @@
         <v>1.71</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT142" t="n">
         <v>0.71</v>
@@ -30338,7 +30338,7 @@
         <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30541,7 +30541,7 @@
         <v>1.6</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU148" t="n">
         <v>2.02</v>
@@ -30741,7 +30741,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT149" t="n">
         <v>0.8</v>
@@ -31350,10 +31350,10 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT153" t="n">
         <v>1.14</v>
@@ -31756,7 +31756,7 @@
         <v>1.25</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT154" t="n">
         <v>1.21</v>
@@ -32365,7 +32365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT157" t="n">
         <v>0.64</v>
@@ -32774,7 +32774,7 @@
         <v>1.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -33177,7 +33177,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT161" t="n">
         <v>0.8</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT162" t="n">
         <v>0.79</v>
@@ -33583,10 +33583,10 @@
         <v>0.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU163" t="n">
         <v>1.71</v>
@@ -33789,7 +33789,7 @@
         <v>2.14</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU164" t="n">
         <v>2.28</v>
@@ -35004,7 +35004,7 @@
         <v>2.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT170" t="n">
         <v>1.71</v>
@@ -35210,7 +35210,7 @@
         <v>2.07</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU171" t="n">
         <v>2.11</v>
@@ -35413,7 +35413,7 @@
         <v>1.07</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU172" t="n">
         <v>1.61</v>
@@ -35613,7 +35613,7 @@
         <v>1.22</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT173" t="n">
         <v>1.07</v>
@@ -35819,7 +35819,7 @@
         <v>1.6</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT176" t="n">
         <v>0.64</v>
@@ -36831,7 +36831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT179" t="n">
         <v>0.79</v>
@@ -37849,7 +37849,7 @@
         <v>1.29</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38052,7 +38052,7 @@
         <v>1.07</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU185" t="n">
         <v>1.66</v>
@@ -38255,7 +38255,7 @@
         <v>1.93</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU186" t="n">
         <v>1.87</v>
@@ -38455,7 +38455,7 @@
         <v>2.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT187" t="n">
         <v>1.86</v>
@@ -38661,7 +38661,7 @@
         <v>0.92</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT189" t="n">
         <v>0.86</v>
@@ -39676,7 +39676,7 @@
         <v>1.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU193" t="n">
         <v>1.54</v>
@@ -40079,7 +40079,7 @@
         <v>0.73</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT195" t="n">
         <v>0.8</v>
@@ -40282,7 +40282,7 @@
         <v>2.2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT196" t="n">
         <v>1.71</v>
@@ -40891,7 +40891,7 @@
         <v>1.3</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT199" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>2.14</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU201" t="n">
         <v>2.25</v>
@@ -41706,7 +41706,7 @@
         <v>1.29</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU203" t="n">
         <v>1.45</v>
@@ -41906,7 +41906,7 @@
         <v>0.82</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT204" t="n">
         <v>0.71</v>
@@ -42312,10 +42312,10 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42518,7 +42518,7 @@
         <v>1.93</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -43124,7 +43124,7 @@
         <v>0.64</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT210" t="n">
         <v>0.79</v>
@@ -43327,7 +43327,7 @@
         <v>2.09</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT211" t="n">
         <v>1.86</v>
@@ -43533,7 +43533,7 @@
         <v>2.07</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU212" t="n">
         <v>2.09</v>
@@ -44748,7 +44748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT218" t="n">
         <v>0.71</v>
@@ -44954,7 +44954,7 @@
         <v>2.36</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU219" t="n">
         <v>1.88</v>
@@ -45357,7 +45357,7 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT221" t="n">
         <v>1.5</v>
@@ -45763,7 +45763,7 @@
         <v>1.58</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT223" t="n">
         <v>1.36</v>
@@ -45969,7 +45969,7 @@
         <v>1.5</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU224" t="n">
         <v>1.7</v>
@@ -46169,10 +46169,10 @@
         <v>1.08</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46375,7 +46375,7 @@
         <v>0.92</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46778,7 +46778,7 @@
         <v>1.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT228" t="n">
         <v>1.86</v>
@@ -47999,7 +47999,7 @@
         <v>2.14</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU234" t="n">
         <v>2.2</v>
@@ -48402,10 +48402,10 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -48605,10 +48605,10 @@
         <v>1.17</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU237" t="n">
         <v>1.67</v>
@@ -49014,7 +49014,7 @@
         <v>2.36</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU239" t="n">
         <v>1.87</v>
@@ -49214,10 +49214,10 @@
         <v>1.23</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU240" t="n">
         <v>1.65</v>
@@ -49417,7 +49417,7 @@
         <v>1.23</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT241" t="n">
         <v>1.14</v>
@@ -49620,7 +49620,7 @@
         <v>1.38</v>
       </c>
       <c r="AS242" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT242" t="n">
         <v>1.5</v>
@@ -49826,7 +49826,7 @@
         <v>0.92</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU243" t="n">
         <v>1.39</v>
@@ -51908,6 +51908,1021 @@
       </c>
       <c r="BK253" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2467833</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45037.5625</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2</v>
+      </c>
+      <c r="L254" t="n">
+        <v>4</v>
+      </c>
+      <c r="M254" t="n">
+        <v>3</v>
+      </c>
+      <c r="N254" t="n">
+        <v>7</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['44', '48', '52', '78']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['36', '71', '79']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>3</v>
+      </c>
+      <c r="S254" t="n">
+        <v>6</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2467834</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45037.5625</v>
+      </c>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['26', '50']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>4</v>
+      </c>
+      <c r="S255" t="n">
+        <v>6</v>
+      </c>
+      <c r="T255" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V255" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X255" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2467832</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45038.33333333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>29</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2</v>
+      </c>
+      <c r="K256" t="n">
+        <v>3</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>3</v>
+      </c>
+      <c r="N256" t="n">
+        <v>4</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['14', '42', '55']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>4</v>
+      </c>
+      <c r="R256" t="n">
+        <v>6</v>
+      </c>
+      <c r="S256" t="n">
+        <v>10</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2467837</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45038.33333333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>29</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['50', '66']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>2</v>
+      </c>
+      <c r="R257" t="n">
+        <v>11</v>
+      </c>
+      <c r="S257" t="n">
+        <v>13</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V257" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2467836</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45038.33333333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['10', '90+3']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>13</v>
+      </c>
+      <c r="R258" t="n">
+        <v>3</v>
+      </c>
+      <c r="S258" t="n">
+        <v>16</v>
+      </c>
+      <c r="T258" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V258" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK258"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT6" t="n">
         <v>1.86</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>1.71</v>
@@ -2933,7 +2933,7 @@
         <v>2.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT13" t="n">
         <v>0.79</v>
@@ -3542,7 +3542,7 @@
         <v>1.36</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT22" t="n">
         <v>0.71</v>
@@ -5775,7 +5775,7 @@
         <v>1.07</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
         <v>1.86</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.3</v>
@@ -7602,7 +7602,7 @@
         <v>2.07</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -8617,7 +8617,7 @@
         <v>2.14</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT41" t="n">
         <v>1.07</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT42" t="n">
         <v>0.71</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT44" t="n">
         <v>0.86</v>
@@ -9835,7 +9835,7 @@
         <v>1.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10647,7 +10647,7 @@
         <v>2.07</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>2.15</v>
@@ -11256,7 +11256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>0.71</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT57" t="n">
         <v>1.13</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12677,7 +12677,7 @@
         <v>2.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT74" t="n">
         <v>1.07</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
         <v>1.07</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>0.87</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT81" t="n">
         <v>1.2</v>
@@ -17143,7 +17143,7 @@
         <v>1.93</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU82" t="n">
         <v>1.98</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT93" t="n">
         <v>0.6</v>
@@ -19579,7 +19579,7 @@
         <v>0.87</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>1.2</v>
@@ -20188,7 +20188,7 @@
         <v>2.13</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT99" t="n">
         <v>1.07</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -22827,7 +22827,7 @@
         <v>2.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23030,7 +23030,7 @@
         <v>0.87</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT112" t="n">
         <v>0.8</v>
@@ -23636,10 +23636,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.6</v>
@@ -24451,7 +24451,7 @@
         <v>2.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT122" t="n">
         <v>1.07</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT127" t="n">
         <v>0.79</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU131" t="n">
         <v>1.8</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -27496,7 +27496,7 @@
         <v>1.13</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27696,7 +27696,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT134" t="n">
         <v>0.6</v>
@@ -27902,7 +27902,7 @@
         <v>1.53</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -28308,7 +28308,7 @@
         <v>2.07</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT143" t="n">
         <v>1.5</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT144" t="n">
         <v>0.79</v>
@@ -30135,7 +30135,7 @@
         <v>2.14</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT150" t="n">
         <v>0.64</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT151" t="n">
         <v>1.07</v>
@@ -31556,7 +31556,7 @@
         <v>1.53</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU153" t="n">
         <v>1.68</v>
@@ -31759,7 +31759,7 @@
         <v>1.13</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>2.14</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU155" t="n">
         <v>1.78</v>
@@ -32165,7 +32165,7 @@
         <v>1.6</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU156" t="n">
         <v>1.94</v>
@@ -32568,7 +32568,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT158" t="n">
         <v>1.07</v>
@@ -32977,7 +32977,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.5</v>
@@ -33989,7 +33989,7 @@
         <v>2.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT165" t="n">
         <v>1.86</v>
@@ -34192,7 +34192,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT166" t="n">
         <v>0.86</v>
@@ -34398,7 +34398,7 @@
         <v>1.71</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.51</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT168" t="n">
         <v>1.5</v>
@@ -36022,7 +36022,7 @@
         <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36428,7 +36428,7 @@
         <v>1.36</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU177" t="n">
         <v>1.86</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT178" t="n">
         <v>1.71</v>
@@ -37037,7 +37037,7 @@
         <v>2.07</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU180" t="n">
         <v>2.11</v>
@@ -37440,10 +37440,10 @@
         <v>1.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37646,7 +37646,7 @@
         <v>2.14</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU183" t="n">
         <v>2.29</v>
@@ -37846,7 +37846,7 @@
         <v>1.1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT184" t="n">
         <v>1.07</v>
@@ -38658,7 +38658,7 @@
         <v>0.89</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT188" t="n">
         <v>1.07</v>
@@ -39064,7 +39064,7 @@
         <v>0.9</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT190" t="n">
         <v>0.71</v>
@@ -39879,7 +39879,7 @@
         <v>1.36</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU194" t="n">
         <v>1.96</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU198" t="n">
         <v>1.52</v>
@@ -41097,7 +41097,7 @@
         <v>1.07</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU200" t="n">
         <v>1.63</v>
@@ -41500,10 +41500,10 @@
         <v>1.45</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41703,7 +41703,7 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT203" t="n">
         <v>1.13</v>
@@ -42109,7 +42109,7 @@
         <v>2.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT205" t="n">
         <v>1.86</v>
@@ -42718,7 +42718,7 @@
         <v>0.73</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT208" t="n">
         <v>0.86</v>
@@ -43736,7 +43736,7 @@
         <v>1.07</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT219" t="n">
         <v>1.07</v>
@@ -45157,7 +45157,7 @@
         <v>1.93</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU220" t="n">
         <v>1.78</v>
@@ -45360,7 +45360,7 @@
         <v>2.13</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU221" t="n">
         <v>1.93</v>
@@ -45560,10 +45560,10 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU222" t="n">
         <v>1.44</v>
@@ -45766,7 +45766,7 @@
         <v>2.33</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU223" t="n">
         <v>1.83</v>
@@ -45966,7 +45966,7 @@
         <v>1.08</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT224" t="n">
         <v>1.07</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT226" t="n">
         <v>1.2</v>
@@ -48808,10 +48808,10 @@
         <v>1.46</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU238" t="n">
         <v>1.74</v>
@@ -49011,7 +49011,7 @@
         <v>1.15</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT239" t="n">
         <v>1.2</v>
@@ -49420,7 +49420,7 @@
         <v>2.33</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU241" t="n">
         <v>1.84</v>
@@ -49623,7 +49623,7 @@
         <v>0.87</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU242" t="n">
         <v>1.54</v>
@@ -49823,7 +49823,7 @@
         <v>0.46</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT243" t="n">
         <v>0.6</v>
@@ -50026,10 +50026,10 @@
         <v>1.23</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU244" t="n">
         <v>1.4</v>
@@ -52923,6 +52923,818 @@
       </c>
       <c r="BK258" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2467852</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45038.64583333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>29</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['22', '62']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>4</v>
+      </c>
+      <c r="R259" t="n">
+        <v>1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>5</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V259" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X259" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2467835</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45039.35416666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>29</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>3</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>3</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['2', '68', '75']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>11</v>
+      </c>
+      <c r="R260" t="n">
+        <v>1</v>
+      </c>
+      <c r="S260" t="n">
+        <v>12</v>
+      </c>
+      <c r="T260" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V260" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X260" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2467838</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45039.35416666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2</v>
+      </c>
+      <c r="K261" t="n">
+        <v>3</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
+        <v>4</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['31', '48']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['19', '27']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>3</v>
+      </c>
+      <c r="R261" t="n">
+        <v>3</v>
+      </c>
+      <c r="S261" t="n">
+        <v>6</v>
+      </c>
+      <c r="T261" t="n">
+        <v>4</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2467839</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45039.35416666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>29</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>4</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>7</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -53190,13 +53190,13 @@
         </is>
       </c>
       <c r="Q260" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R260" t="n">
         <v>1</v>
       </c>
       <c r="S260" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T260" t="n">
         <v>2.38</v>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK262"/>
+  <dimension ref="A1:BK267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>1.07</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT3" t="n">
         <v>1.4</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT4" t="n">
         <v>0.71</v>
@@ -1512,7 +1512,7 @@
         <v>0.93</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.07</v>
@@ -2324,7 +2324,7 @@
         <v>0.87</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.13</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>1.07</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.07</v>
@@ -5369,7 +5369,7 @@
         <v>2.13</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5572,7 +5572,7 @@
         <v>0.87</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.4</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6384,7 +6384,7 @@
         <v>1.53</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
         <v>1.13</v>
@@ -6993,7 +6993,7 @@
         <v>1.36</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU32" t="n">
         <v>1.39</v>
@@ -7196,7 +7196,7 @@
         <v>1.13</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7399,7 +7399,7 @@
         <v>2.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.07</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.4</v>
@@ -9429,7 +9429,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT46" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>1.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.44</v>
@@ -10444,7 +10444,7 @@
         <v>2.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>2.57</v>
@@ -11053,7 +11053,7 @@
         <v>1.53</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.36</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT60" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>2.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13692,7 +13692,7 @@
         <v>1.53</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -13895,7 +13895,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.58</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.64</v>
@@ -14301,7 +14301,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU68" t="n">
         <v>1.63</v>
@@ -14504,7 +14504,7 @@
         <v>1.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -14707,7 +14707,7 @@
         <v>2.14</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT73" t="n">
         <v>1.86</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT82" t="n">
         <v>1.13</v>
@@ -17343,7 +17343,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.86</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT85" t="n">
         <v>0.8</v>
@@ -17955,7 +17955,7 @@
         <v>1.36</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.96</v>
@@ -18158,7 +18158,7 @@
         <v>2.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.61</v>
@@ -18358,10 +18358,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -18561,10 +18561,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT91" t="n">
         <v>0.64</v>
@@ -20997,10 +20997,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.81</v>
@@ -21200,10 +21200,10 @@
         <v>3</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU102" t="n">
         <v>2.09</v>
@@ -21809,10 +21809,10 @@
         <v>0.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU105" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
         <v>0.64</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,10 +24854,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25263,7 +25263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT123" t="n">
         <v>0.71</v>
@@ -25666,7 +25666,7 @@
         <v>2.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT124" t="n">
         <v>1.86</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU125" t="n">
         <v>2.42</v>
@@ -26278,7 +26278,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT137" t="n">
         <v>1.4</v>
@@ -28508,10 +28508,10 @@
         <v>0.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU138" t="n">
         <v>2.36</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT140" t="n">
         <v>1.07</v>
@@ -29117,10 +29117,10 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29526,7 +29526,7 @@
         <v>0.93</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -29729,7 +29729,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT145" t="n">
         <v>1.86</v>
@@ -31150,7 +31150,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -32571,7 +32571,7 @@
         <v>2.4</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU158" t="n">
         <v>1.74</v>
@@ -33383,7 +33383,7 @@
         <v>2.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU162" t="n">
         <v>2.01</v>
@@ -33786,7 +33786,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -34195,7 +34195,7 @@
         <v>1.27</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,7 +34395,7 @@
         <v>1.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT167" t="n">
         <v>1.4</v>
@@ -34601,7 +34601,7 @@
         <v>1.4</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT169" t="n">
         <v>0.71</v>
@@ -35007,7 +35007,7 @@
         <v>0.87</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU170" t="n">
         <v>1.64</v>
@@ -35207,7 +35207,7 @@
         <v>1.22</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT171" t="n">
         <v>1.07</v>
@@ -35410,7 +35410,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT172" t="n">
         <v>1.07</v>
@@ -35616,7 +35616,7 @@
         <v>1.13</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -36631,7 +36631,7 @@
         <v>2.4</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU178" t="n">
         <v>1.76</v>
@@ -36834,7 +36834,7 @@
         <v>2.33</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU179" t="n">
         <v>1.72</v>
@@ -37034,7 +37034,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT180" t="n">
         <v>1.33</v>
@@ -37643,7 +37643,7 @@
         <v>1.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT183" t="n">
         <v>1.33</v>
@@ -38049,7 +38049,7 @@
         <v>0.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT185" t="n">
         <v>1.2</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT186" t="n">
         <v>1.13</v>
@@ -38864,7 +38864,7 @@
         <v>2.13</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU189" t="n">
         <v>2</v>
@@ -39473,7 +39473,7 @@
         <v>2.14</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU192" t="n">
         <v>1.94</v>
@@ -39673,7 +39673,7 @@
         <v>0.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT193" t="n">
         <v>0.6</v>
@@ -40285,7 +40285,7 @@
         <v>2.33</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU196" t="n">
         <v>1.84</v>
@@ -40485,10 +40485,10 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU197" t="n">
         <v>2.09</v>
@@ -40894,7 +40894,7 @@
         <v>1.13</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41094,7 +41094,7 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT200" t="n">
         <v>1.33</v>
@@ -41297,7 +41297,7 @@
         <v>0.82</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT201" t="n">
         <v>1.2</v>
@@ -42515,7 +42515,7 @@
         <v>1.09</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT207" t="n">
         <v>1.07</v>
@@ -42721,7 +42721,7 @@
         <v>1.4</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42921,7 +42921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT209" t="n">
         <v>0.8</v>
@@ -43127,7 +43127,7 @@
         <v>1.53</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU210" t="n">
         <v>1.67</v>
@@ -43530,7 +43530,7 @@
         <v>0.55</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT212" t="n">
         <v>0.6</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT213" t="n">
         <v>1.13</v>
@@ -43939,7 +43939,7 @@
         <v>2.14</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44142,7 +44142,7 @@
         <v>1.6</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU215" t="n">
         <v>1.96</v>
@@ -44548,7 +44548,7 @@
         <v>1.5</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU217" t="n">
         <v>1.55</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT220" t="n">
         <v>1.33</v>
@@ -46578,7 +46578,7 @@
         <v>2.14</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -46981,7 +46981,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT229" t="n">
         <v>0.64</v>
@@ -47390,7 +47390,7 @@
         <v>1.6</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU231" t="n">
         <v>1.94</v>
@@ -47590,10 +47590,10 @@
         <v>1.42</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU232" t="n">
         <v>1.51</v>
@@ -47793,10 +47793,10 @@
         <v>1.25</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU233" t="n">
         <v>1.62</v>
@@ -47996,7 +47996,7 @@
         <v>0.5</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT234" t="n">
         <v>0.6</v>
@@ -48202,7 +48202,7 @@
         <v>1.36</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU235" t="n">
         <v>1.92</v>
@@ -50229,7 +50229,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT245" t="n">
         <v>0.64</v>
@@ -50435,7 +50435,7 @@
         <v>1.5</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU246" t="n">
         <v>1.54</v>
@@ -50635,7 +50635,7 @@
         <v>0.64</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT247" t="n">
         <v>0.8</v>
@@ -51041,10 +51041,10 @@
         <v>1.15</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU249" t="n">
         <v>2.15</v>
@@ -51244,10 +51244,10 @@
         <v>1.85</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU250" t="n">
         <v>1.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.6</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU252" t="n">
         <v>1.94</v>
@@ -51853,10 +51853,10 @@
         <v>0.62</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU253" t="n">
         <v>1.95</v>
@@ -53735,6 +53735,1021 @@
       </c>
       <c r="BK262" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2467853</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45044.5625</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['7', '51']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>9</v>
+      </c>
+      <c r="R263" t="n">
+        <v>4</v>
+      </c>
+      <c r="S263" t="n">
+        <v>13</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2467855</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45044.5625</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
+        <v>5</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>6</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['28', '45+1', '51', '90', '90+4']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>4</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>4</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X264" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2467861</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45045.33333333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>14</v>
+      </c>
+      <c r="R265" t="n">
+        <v>6</v>
+      </c>
+      <c r="S265" t="n">
+        <v>20</v>
+      </c>
+      <c r="T265" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V265" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2467860</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45045.33333333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2</v>
+      </c>
+      <c r="N266" t="n">
+        <v>5</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['32', '74', '86']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['42', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2</v>
+      </c>
+      <c r="R266" t="n">
+        <v>12</v>
+      </c>
+      <c r="S266" t="n">
+        <v>14</v>
+      </c>
+      <c r="T266" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2467854</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45045.33333333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="n">
+        <v>3</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['53', '69']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>5</v>
+      </c>
+      <c r="R267" t="n">
+        <v>5</v>
+      </c>
+      <c r="S267" t="n">
+        <v>10</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK267"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.13</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT5" t="n">
         <v>0.8</v>
@@ -1715,7 +1715,7 @@
         <v>1.27</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.13</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5978,7 +5978,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT32" t="n">
         <v>0.73</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -8211,7 +8211,7 @@
         <v>2.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8820,7 +8820,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.3</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT54" t="n">
         <v>0.6</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT55" t="n">
         <v>0.8</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12880,7 +12880,7 @@
         <v>2.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT64" t="n">
         <v>1.33</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT68" t="n">
         <v>0.73</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.2</v>
@@ -15316,7 +15316,7 @@
         <v>1.6</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT74" t="n">
         <v>1.07</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -15925,7 +15925,7 @@
         <v>2.33</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.68</v>
@@ -17346,7 +17346,7 @@
         <v>2.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU83" t="n">
         <v>2.6</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
         <v>1.6</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT86" t="n">
         <v>1.2</v>
@@ -18155,7 +18155,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.8</v>
@@ -18767,7 +18767,7 @@
         <v>1.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU90" t="n">
         <v>2.36</v>
@@ -18970,7 +18970,7 @@
         <v>1.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19173,7 +19173,7 @@
         <v>1.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT98" t="n">
         <v>1.33</v>
@@ -21403,10 +21403,10 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21609,7 +21609,7 @@
         <v>1.6</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU104" t="n">
         <v>2.36</v>
@@ -22012,7 +22012,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT106" t="n">
         <v>0.8</v>
@@ -22218,7 +22218,7 @@
         <v>1.6</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT109" t="n">
         <v>1.6</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.13</v>
@@ -25466,7 +25466,7 @@
         <v>1.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25669,7 +25669,7 @@
         <v>2.13</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -26072,10 +26072,10 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT127" t="n">
         <v>0.73</v>
@@ -26884,7 +26884,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT130" t="n">
         <v>1.2</v>
@@ -28105,7 +28105,7 @@
         <v>2.13</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28711,7 +28711,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT139" t="n">
         <v>1.13</v>
@@ -28917,7 +28917,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -29323,7 +29323,7 @@
         <v>0.87</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT143" t="n">
         <v>1.6</v>
@@ -29932,7 +29932,7 @@
         <v>1.2</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT146" t="n">
         <v>1.33</v>
@@ -30335,7 +30335,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT147" t="n">
         <v>1.07</v>
@@ -30947,7 +30947,7 @@
         <v>2.4</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31959,7 +31959,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT155" t="n">
         <v>1.33</v>
@@ -32368,7 +32368,7 @@
         <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32771,7 +32771,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT159" t="n">
         <v>0.6</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT160" t="n">
         <v>1.33</v>
@@ -33989,10 +33989,10 @@
         <v>2.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU165" t="n">
         <v>1.52</v>
@@ -34804,7 +34804,7 @@
         <v>1.8</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35413,7 +35413,7 @@
         <v>1.2</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.61</v>
@@ -36019,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT175" t="n">
         <v>1.13</v>
@@ -36225,7 +36225,7 @@
         <v>1.53</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU176" t="n">
         <v>1.79</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT177" t="n">
         <v>1.33</v>
@@ -37237,7 +37237,7 @@
         <v>0.8</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT181" t="n">
         <v>0.8</v>
@@ -38458,7 +38458,7 @@
         <v>0.87</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38658,10 +38658,10 @@
         <v>0.89</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -39067,7 +39067,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU190" t="n">
         <v>1.84</v>
@@ -39270,7 +39270,7 @@
         <v>1.6</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39470,7 +39470,7 @@
         <v>0.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT192" t="n">
         <v>0.73</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT194" t="n">
         <v>1.13</v>
@@ -40688,7 +40688,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT198" t="n">
         <v>1.33</v>
@@ -41500,7 +41500,7 @@
         <v>1.45</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT202" t="n">
         <v>1.4</v>
@@ -41909,7 +41909,7 @@
         <v>2.13</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42112,7 +42112,7 @@
         <v>2.4</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU205" t="n">
         <v>1.85</v>
@@ -42315,7 +42315,7 @@
         <v>0.87</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -43330,7 +43330,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU211" t="n">
         <v>1.63</v>
@@ -43936,7 +43936,7 @@
         <v>1.45</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT214" t="n">
         <v>1.6</v>
@@ -44342,10 +44342,10 @@
         <v>0.55</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU216" t="n">
         <v>1.97</v>
@@ -44545,7 +44545,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT217" t="n">
         <v>1.2</v>
@@ -44751,7 +44751,7 @@
         <v>1.13</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -44954,7 +44954,7 @@
         <v>2.4</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU219" t="n">
         <v>1.88</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT226" t="n">
         <v>1.2</v>
@@ -46575,7 +46575,7 @@
         <v>1.92</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT227" t="n">
         <v>1.6</v>
@@ -46781,7 +46781,7 @@
         <v>1.53</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU228" t="n">
         <v>1.71</v>
@@ -46984,7 +46984,7 @@
         <v>2.13</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU229" t="n">
         <v>2.04</v>
@@ -47184,7 +47184,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT230" t="n">
         <v>0.8</v>
@@ -48199,7 +48199,7 @@
         <v>0.75</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT235" t="n">
         <v>0.8</v>
@@ -48608,7 +48608,7 @@
         <v>1.53</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU237" t="n">
         <v>1.67</v>
@@ -49823,7 +49823,7 @@
         <v>0.46</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT243" t="n">
         <v>0.6</v>
@@ -50232,7 +50232,7 @@
         <v>1.8</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU245" t="n">
         <v>1.76</v>
@@ -50432,7 +50432,7 @@
         <v>1.38</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT246" t="n">
         <v>1.6</v>
@@ -50838,10 +50838,10 @@
         <v>0.77</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU248" t="n">
         <v>1.9</v>
@@ -51447,10 +51447,10 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AU251" t="n">
         <v>1.87</v>
@@ -52262,7 +52262,7 @@
         <v>2.33</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU255" t="n">
         <v>1.8</v>
@@ -53477,7 +53477,7 @@
         <v>1.14</v>
       </c>
       <c r="AS261" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT261" t="n">
         <v>1.13</v>
@@ -54750,6 +54750,818 @@
       </c>
       <c r="BK267" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2467858</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45045.64583333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>30</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>3</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['43', '49', '70']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>3</v>
+      </c>
+      <c r="R268" t="n">
+        <v>9</v>
+      </c>
+      <c r="S268" t="n">
+        <v>12</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2467859</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45046.35416666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>30</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['16', '52']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>9</v>
+      </c>
+      <c r="R269" t="n">
+        <v>5</v>
+      </c>
+      <c r="S269" t="n">
+        <v>14</v>
+      </c>
+      <c r="T269" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2467856</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45046.35416666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>30</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>3</v>
+      </c>
+      <c r="N270" t="n">
+        <v>3</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['6', '22', '52']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>4</v>
+      </c>
+      <c r="R270" t="n">
+        <v>4</v>
+      </c>
+      <c r="S270" t="n">
+        <v>8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X270" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2467857</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45046.35416666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['33', '72', '90+3']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['28', '66']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>8</v>
+      </c>
+      <c r="R271" t="n">
+        <v>6</v>
+      </c>
+      <c r="S271" t="n">
+        <v>14</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X271" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -55140,22 +55140,22 @@
         <v>3.4</v>
       </c>
       <c r="BF269" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH269" t="n">
         <v>2</v>
       </c>
       <c r="BI269" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ269" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK269" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.6</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT12" t="n">
         <v>1.13</v>
@@ -3339,7 +3339,7 @@
         <v>1.53</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT18" t="n">
         <v>1.2</v>
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>2.05</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT24" t="n">
         <v>1.6</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -5775,7 +5775,7 @@
         <v>1.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT31" t="n">
         <v>0.8</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8008,7 +8008,7 @@
         <v>1.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT38" t="n">
         <v>1.93</v>
@@ -8414,7 +8414,7 @@
         <v>1.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.2</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11459,7 +11459,7 @@
         <v>1.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12474,7 +12474,7 @@
         <v>1.27</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.54</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT69" t="n">
         <v>1.6</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT70" t="n">
         <v>1.2</v>
@@ -15113,7 +15113,7 @@
         <v>1.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15519,7 +15519,7 @@
         <v>1.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>1.33</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT79" t="n">
         <v>1.13</v>
@@ -18155,7 +18155,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT87" t="n">
         <v>0.8</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT90" t="n">
         <v>0.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>1.27</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -20185,7 +20185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT97" t="n">
         <v>1.33</v>
@@ -20594,7 +20594,7 @@
         <v>2.4</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT104" t="n">
         <v>1.93</v>
@@ -22218,7 +22218,7 @@
         <v>1.6</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22827,7 +22827,7 @@
         <v>2.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.33</v>
@@ -23436,7 +23436,7 @@
         <v>1.53</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT116" t="n">
         <v>1.13</v>
@@ -24248,7 +24248,7 @@
         <v>2.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>2.33</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -26681,7 +26681,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>0.8</v>
@@ -26884,7 +26884,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT130" t="n">
         <v>1.2</v>
@@ -27290,10 +27290,10 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -27699,7 +27699,7 @@
         <v>1.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>2.13</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
         <v>0.67</v>
@@ -30132,7 +30132,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT146" t="n">
         <v>1.33</v>
@@ -30338,7 +30338,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30538,7 +30538,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT148" t="n">
         <v>1.2</v>
@@ -30741,7 +30741,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT149" t="n">
         <v>0.8</v>
@@ -30947,7 +30947,7 @@
         <v>2.4</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31353,7 +31353,7 @@
         <v>2.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -31959,7 +31959,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT155" t="n">
         <v>1.33</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT156" t="n">
         <v>1.13</v>
@@ -32368,7 +32368,7 @@
         <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32774,7 +32774,7 @@
         <v>1.27</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT162" t="n">
         <v>0.73</v>
@@ -34398,7 +34398,7 @@
         <v>1.6</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU167" t="n">
         <v>1.51</v>
@@ -35004,7 +35004,7 @@
         <v>2.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
         <v>1.6</v>
@@ -35210,7 +35210,7 @@
         <v>2.13</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>2.11</v>
@@ -35816,10 +35816,10 @@
         <v>0.67</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36225,7 +36225,7 @@
         <v>1.53</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU176" t="n">
         <v>1.79</v>
@@ -37237,7 +37237,7 @@
         <v>0.8</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT181" t="n">
         <v>0.8</v>
@@ -37443,7 +37443,7 @@
         <v>1.4</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37849,7 +37849,7 @@
         <v>1.27</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38455,7 +38455,7 @@
         <v>2.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT187" t="n">
         <v>1.93</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT189" t="n">
         <v>0.8</v>
@@ -39267,10 +39267,10 @@
         <v>0.6</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39470,7 +39470,7 @@
         <v>0.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT192" t="n">
         <v>0.73</v>
@@ -39676,7 +39676,7 @@
         <v>1.6</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU193" t="n">
         <v>1.54</v>
@@ -41503,7 +41503,7 @@
         <v>1.07</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41906,7 +41906,7 @@
         <v>0.82</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT204" t="n">
         <v>0.67</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>1</v>
@@ -42518,7 +42518,7 @@
         <v>1.8</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -43533,7 +43533,7 @@
         <v>2.13</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU212" t="n">
         <v>2.09</v>
@@ -43936,7 +43936,7 @@
         <v>1.45</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT214" t="n">
         <v>1.6</v>
@@ -44139,7 +44139,7 @@
         <v>2.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT215" t="n">
         <v>1.6</v>
@@ -44345,7 +44345,7 @@
         <v>1.27</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU216" t="n">
         <v>1.97</v>
@@ -45357,10 +45357,10 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU221" t="n">
         <v>1.93</v>
@@ -45969,7 +45969,7 @@
         <v>1.4</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU224" t="n">
         <v>1.7</v>
@@ -46169,7 +46169,7 @@
         <v>1.08</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT225" t="n">
         <v>1.13</v>
@@ -46575,7 +46575,7 @@
         <v>1.92</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT227" t="n">
         <v>1.6</v>
@@ -46984,7 +46984,7 @@
         <v>2.13</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU229" t="n">
         <v>2.04</v>
@@ -47387,7 +47387,7 @@
         <v>0.58</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT231" t="n">
         <v>0.73</v>
@@ -47999,7 +47999,7 @@
         <v>2.2</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU234" t="n">
         <v>2.2</v>
@@ -48402,10 +48402,10 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -49620,10 +49620,10 @@
         <v>1.38</v>
       </c>
       <c r="AS242" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU242" t="n">
         <v>1.54</v>
@@ -49826,7 +49826,7 @@
         <v>1.07</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU243" t="n">
         <v>1.39</v>
@@ -50232,7 +50232,7 @@
         <v>1.8</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU245" t="n">
         <v>1.76</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT251" t="n">
         <v>1.93</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT252" t="n">
         <v>0.8</v>
@@ -52056,7 +52056,7 @@
         <v>1.29</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT254" t="n">
         <v>1.2</v>
@@ -52465,7 +52465,7 @@
         <v>1.13</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU256" t="n">
         <v>1.62</v>
@@ -52665,10 +52665,10 @@
         <v>0.64</v>
       </c>
       <c r="AS257" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU257" t="n">
         <v>1.54</v>
@@ -53277,7 +53277,7 @@
         <v>2.4</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU260" t="n">
         <v>1.82</v>
@@ -55104,7 +55104,7 @@
         <v>1.07</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU269" t="n">
         <v>1.3</v>
@@ -55507,7 +55507,7 @@
         <v>1.07</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT271" t="n">
         <v>1</v>
@@ -55562,6 +55562,1021 @@
       </c>
       <c r="BK271" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2467862</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45051.5625</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>8</v>
+      </c>
+      <c r="R272" t="n">
+        <v>5</v>
+      </c>
+      <c r="S272" t="n">
+        <v>13</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2467863</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45051.5625</v>
+      </c>
+      <c r="F273" t="n">
+        <v>31</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="n">
+        <v>4</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['39', '49']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['43', '73']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>4</v>
+      </c>
+      <c r="S273" t="n">
+        <v>7</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2467867</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45052.33333333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>31</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>3</v>
+      </c>
+      <c r="L274" t="n">
+        <v>3</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['14', '19', '24']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>4</v>
+      </c>
+      <c r="R274" t="n">
+        <v>3</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2467868</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45052.33333333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>31</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['4', '12']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>4</v>
+      </c>
+      <c r="R275" t="n">
+        <v>6</v>
+      </c>
+      <c r="S275" t="n">
+        <v>10</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V275" t="n">
+        <v>4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2467869</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45052.33333333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['34', '79']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>2</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>5</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK276"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.6</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT13" t="n">
         <v>0.73</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.63</v>
@@ -3542,7 +3542,7 @@
         <v>1.27</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.6</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.69</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.93</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6790,7 +6790,7 @@
         <v>1.69</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>2.53</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT34" t="n">
         <v>1.2</v>
@@ -7602,7 +7602,7 @@
         <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT44" t="n">
         <v>0.8</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU45" t="n">
         <v>1.61</v>
@@ -9835,7 +9835,7 @@
         <v>1.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT49" t="n">
         <v>1.6</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>1.6</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -11662,7 +11662,7 @@
         <v>1.27</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.78</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT57" t="n">
         <v>1.13</v>
@@ -12271,7 +12271,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU58" t="n">
         <v>2.14</v>
@@ -12677,7 +12677,7 @@
         <v>2.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13489,7 +13489,7 @@
         <v>1.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>0.8</v>
@@ -14910,7 +14910,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU71" t="n">
         <v>2.15</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT76" t="n">
         <v>0.67</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -16940,7 +16940,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU81" t="n">
         <v>1.13</v>
@@ -17752,7 +17752,7 @@
         <v>1.8</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT95" t="n">
         <v>1.13</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU96" t="n">
         <v>1.83</v>
@@ -20188,7 +20188,7 @@
         <v>2.06</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20391,7 +20391,7 @@
         <v>1.07</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.31</v>
@@ -22421,7 +22421,7 @@
         <v>2.2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU108" t="n">
         <v>2.51</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT110" t="n">
         <v>1.31</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -23233,7 +23233,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU112" t="n">
         <v>1.19</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>1.13</v>
@@ -23842,7 +23842,7 @@
         <v>1.13</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT117" t="n">
         <v>0.63</v>
@@ -24451,7 +24451,7 @@
         <v>2.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU129" t="n">
         <v>1.54</v>
@@ -26887,7 +26887,7 @@
         <v>2.25</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT131" t="n">
         <v>1.13</v>
@@ -27496,7 +27496,7 @@
         <v>1.13</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27696,7 +27696,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>0.63</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -30135,7 +30135,7 @@
         <v>2.25</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30541,7 +30541,7 @@
         <v>1.69</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU148" t="n">
         <v>2.02</v>
@@ -30744,7 +30744,7 @@
         <v>2.06</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU149" t="n">
         <v>1.97</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT150" t="n">
         <v>0.5600000000000001</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT151" t="n">
         <v>1.2</v>
@@ -31350,7 +31350,7 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT152" t="n">
         <v>0.63</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
         <v>1.13</v>
@@ -31759,7 +31759,7 @@
         <v>1.13</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>2.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU155" t="n">
         <v>1.78</v>
@@ -32365,7 +32365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT157" t="n">
         <v>0.5600000000000001</v>
@@ -32568,7 +32568,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT158" t="n">
         <v>1.2</v>
@@ -32977,7 +32977,7 @@
         <v>1.6</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU160" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.13</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU161" t="n">
         <v>1.55</v>
@@ -33583,10 +33583,10 @@
         <v>0.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU163" t="n">
         <v>1.71</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT168" t="n">
         <v>1.6</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
         <v>0.5600000000000001</v>
@@ -36428,7 +36428,7 @@
         <v>1.27</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU177" t="n">
         <v>1.86</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT178" t="n">
         <v>1.6</v>
@@ -36831,7 +36831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT179" t="n">
         <v>0.73</v>
@@ -37037,7 +37037,7 @@
         <v>2.13</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU180" t="n">
         <v>2.11</v>
@@ -37240,7 +37240,7 @@
         <v>2.25</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU181" t="n">
         <v>1.85</v>
@@ -37440,7 +37440,7 @@
         <v>1.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT182" t="n">
         <v>1.31</v>
@@ -37646,7 +37646,7 @@
         <v>2.2</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU183" t="n">
         <v>2.29</v>
@@ -38052,7 +38052,7 @@
         <v>1.2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU185" t="n">
         <v>1.66</v>
@@ -39064,7 +39064,7 @@
         <v>0.9</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT190" t="n">
         <v>0.67</v>
@@ -40079,10 +40079,10 @@
         <v>0.73</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU195" t="n">
         <v>1.73</v>
@@ -40282,7 +40282,7 @@
         <v>2.2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT196" t="n">
         <v>1.6</v>
@@ -40691,7 +40691,7 @@
         <v>1.6</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU198" t="n">
         <v>1.52</v>
@@ -41097,7 +41097,7 @@
         <v>1.2</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU200" t="n">
         <v>1.63</v>
@@ -41300,7 +41300,7 @@
         <v>2.2</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU201" t="n">
         <v>2.25</v>
@@ -42109,7 +42109,7 @@
         <v>2.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT205" t="n">
         <v>1.93</v>
@@ -42718,7 +42718,7 @@
         <v>0.73</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>0.8</v>
@@ -42924,7 +42924,7 @@
         <v>1.6</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU209" t="n">
         <v>1.53</v>
@@ -43124,7 +43124,7 @@
         <v>0.64</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT210" t="n">
         <v>0.73</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>1.8</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU220" t="n">
         <v>1.78</v>
@@ -45763,10 +45763,10 @@
         <v>1.58</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU223" t="n">
         <v>1.83</v>
@@ -45966,7 +45966,7 @@
         <v>1.08</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT224" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>1.07</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46778,7 +46778,7 @@
         <v>1.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT228" t="n">
         <v>1.93</v>
@@ -47187,7 +47187,7 @@
         <v>1.6</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -48605,7 +48605,7 @@
         <v>1.17</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT237" t="n">
         <v>1</v>
@@ -48808,10 +48808,10 @@
         <v>1.46</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU238" t="n">
         <v>1.74</v>
@@ -49011,10 +49011,10 @@
         <v>1.15</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU239" t="n">
         <v>1.87</v>
@@ -49417,7 +49417,7 @@
         <v>1.23</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT241" t="n">
         <v>1.13</v>
@@ -50029,7 +50029,7 @@
         <v>1.27</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU244" t="n">
         <v>1.4</v>
@@ -50638,7 +50638,7 @@
         <v>1.2</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU247" t="n">
         <v>1.67</v>
@@ -52059,7 +52059,7 @@
         <v>2.06</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU254" t="n">
         <v>1.96</v>
@@ -52259,7 +52259,7 @@
         <v>1.15</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -52868,7 +52868,7 @@
         <v>1.21</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT258" t="n">
         <v>1.13</v>
@@ -53071,10 +53071,10 @@
         <v>1.21</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU259" t="n">
         <v>1.71</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT260" t="n">
         <v>1.31</v>
@@ -53683,7 +53683,7 @@
         <v>1.27</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU262" t="n">
         <v>1.39</v>
@@ -56577,6 +56577,818 @@
       </c>
       <c r="BK276" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2467864</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>31</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>3</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['45', '57', '84']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>3</v>
+      </c>
+      <c r="T277" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X277" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2467865</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45053.35416666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>8</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>11</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V278" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2467866</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45053.35416666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>31</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>2</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" t="n">
+        <v>3</v>
+      </c>
+      <c r="L279" t="n">
+        <v>3</v>
+      </c>
+      <c r="M279" t="n">
+        <v>3</v>
+      </c>
+      <c r="N279" t="n">
+        <v>6</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['4', '34', '49']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['40', '88', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>10</v>
+      </c>
+      <c r="S279" t="n">
+        <v>13</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V279" t="n">
+        <v>4</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2467870</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45053.35416666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>31</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>3</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['82', '89']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>3</v>
+      </c>
+      <c r="R280" t="n">
+        <v>12</v>
+      </c>
+      <c r="S280" t="n">
+        <v>15</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V280" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -56970,19 +56970,19 @@
         <v>8</v>
       </c>
       <c r="BG278" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH278" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BI278" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ278" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK278" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279">
@@ -57170,22 +57170,22 @@
         <v>3.2</v>
       </c>
       <c r="BF279" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG279" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI279" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ279" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BK279" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280">
@@ -57373,22 +57373,22 @@
         <v>3</v>
       </c>
       <c r="BF280" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG280" t="n">
         <v>6</v>
       </c>
       <c r="BH280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI280" t="n">
         <v>5</v>
       </c>
-      <c r="BI280" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ280" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK280" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>1.31</v>
@@ -1309,7 +1309,7 @@
         <v>2.13</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2121,7 +2121,7 @@
         <v>2.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.31</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT15" t="n">
         <v>1.31</v>
@@ -4151,7 +4151,7 @@
         <v>2.06</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT26" t="n">
         <v>1.31</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1.13</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.39</v>
@@ -7399,7 +7399,7 @@
         <v>2.19</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42" t="n">
         <v>1.3</v>
@@ -9429,7 +9429,7 @@
         <v>2.31</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT46" t="n">
         <v>1.31</v>
@@ -10038,7 +10038,7 @@
         <v>1.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.69</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU51" t="n">
         <v>2.57</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
         <v>1.31</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
         <v>1.31</v>
@@ -12880,7 +12880,7 @@
         <v>2.06</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13286,7 +13286,7 @@
         <v>2.19</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>1.31</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14301,7 +14301,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>2.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT72" t="n">
         <v>0.63</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>1.93</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -15925,7 +15925,7 @@
         <v>2.19</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU76" t="n">
         <v>1.68</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT82" t="n">
         <v>1.13</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT85" t="n">
         <v>0.75</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU86" t="n">
         <v>1.96</v>
@@ -18158,7 +18158,7 @@
         <v>2.25</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU87" t="n">
         <v>1.61</v>
@@ -18561,10 +18561,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -18767,7 +18767,7 @@
         <v>1.69</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU90" t="n">
         <v>2.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5600000000000001</v>
@@ -19173,7 +19173,7 @@
         <v>1.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
         <v>1.31</v>
@@ -20997,10 +20997,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU101" t="n">
         <v>1.81</v>
@@ -21406,7 +21406,7 @@
         <v>2.25</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21809,10 +21809,10 @@
         <v>0.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU105" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>1.6</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5600000000000001</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT109" t="n">
         <v>1.6</v>
@@ -24651,7 +24651,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT119" t="n">
         <v>1.6</v>
@@ -24854,10 +24854,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
         <v>1.13</v>
@@ -25263,7 +25263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>1.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.42</v>
@@ -28511,7 +28511,7 @@
         <v>2.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>2.36</v>
@@ -28914,10 +28914,10 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -29117,7 +29117,7 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT141" t="n">
         <v>1.6</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
         <v>1.6</v>
@@ -29729,7 +29729,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT145" t="n">
         <v>1.93</v>
@@ -30335,7 +30335,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -31150,7 +31150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -32571,7 +32571,7 @@
         <v>2.31</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU158" t="n">
         <v>1.74</v>
@@ -32771,7 +32771,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT159" t="n">
         <v>0.63</v>
@@ -33383,7 +33383,7 @@
         <v>2.06</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU162" t="n">
         <v>2.01</v>
@@ -33989,7 +33989,7 @@
         <v>2.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT165" t="n">
         <v>1.93</v>
@@ -34195,7 +34195,7 @@
         <v>1.27</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,7 +34395,7 @@
         <v>1.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT167" t="n">
         <v>1.31</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35410,10 +35410,10 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU172" t="n">
         <v>1.61</v>
@@ -35616,7 +35616,7 @@
         <v>1.13</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT177" t="n">
         <v>1.31</v>
@@ -36834,7 +36834,7 @@
         <v>2.19</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU179" t="n">
         <v>1.72</v>
@@ -38049,7 +38049,7 @@
         <v>0.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT185" t="n">
         <v>1.31</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT186" t="n">
         <v>1.13</v>
@@ -38658,10 +38658,10 @@
         <v>0.89</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38864,7 +38864,7 @@
         <v>2.06</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>2</v>
@@ -39067,7 +39067,7 @@
         <v>2.31</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU190" t="n">
         <v>1.84</v>
@@ -39473,7 +39473,7 @@
         <v>2.25</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU192" t="n">
         <v>1.94</v>
@@ -39673,7 +39673,7 @@
         <v>0.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
         <v>0.63</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT194" t="n">
         <v>1.13</v>
@@ -40488,7 +40488,7 @@
         <v>2.13</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU197" t="n">
         <v>2.09</v>
@@ -41094,7 +41094,7 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT200" t="n">
         <v>1.31</v>
@@ -41500,7 +41500,7 @@
         <v>1.45</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT202" t="n">
         <v>1.31</v>
@@ -41909,7 +41909,7 @@
         <v>2.06</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42515,7 +42515,7 @@
         <v>1.09</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT207" t="n">
         <v>1</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42921,7 +42921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT209" t="n">
         <v>0.75</v>
@@ -43127,7 +43127,7 @@
         <v>1.5</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU210" t="n">
         <v>1.67</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT213" t="n">
         <v>1.13</v>
@@ -44342,7 +44342,7 @@
         <v>0.55</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT216" t="n">
         <v>0.5600000000000001</v>
@@ -44548,7 +44548,7 @@
         <v>1.6</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU217" t="n">
         <v>1.55</v>
@@ -44751,7 +44751,7 @@
         <v>1.13</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -44954,7 +44954,7 @@
         <v>2.31</v>
       </c>
       <c r="AT219" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU219" t="n">
         <v>1.88</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT220" t="n">
         <v>1.31</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT226" t="n">
         <v>1.31</v>
@@ -47390,7 +47390,7 @@
         <v>1.69</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU231" t="n">
         <v>1.94</v>
@@ -47590,7 +47590,7 @@
         <v>1.42</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT232" t="n">
         <v>1.6</v>
@@ -47793,10 +47793,10 @@
         <v>1.25</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU233" t="n">
         <v>1.62</v>
@@ -48199,10 +48199,10 @@
         <v>0.75</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU235" t="n">
         <v>1.92</v>
@@ -48608,7 +48608,7 @@
         <v>1.5</v>
       </c>
       <c r="AT237" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU237" t="n">
         <v>1.67</v>
@@ -49823,7 +49823,7 @@
         <v>0.46</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT243" t="n">
         <v>0.63</v>
@@ -50229,7 +50229,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT245" t="n">
         <v>0.5600000000000001</v>
@@ -50635,7 +50635,7 @@
         <v>0.64</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT247" t="n">
         <v>0.75</v>
@@ -50838,10 +50838,10 @@
         <v>0.77</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU248" t="n">
         <v>1.9</v>
@@ -51044,7 +51044,7 @@
         <v>2.2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU249" t="n">
         <v>2.15</v>
@@ -51244,7 +51244,7 @@
         <v>1.85</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>1.6</v>
@@ -51653,7 +51653,7 @@
         <v>1.69</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU252" t="n">
         <v>1.94</v>
@@ -51856,7 +51856,7 @@
         <v>2.13</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU253" t="n">
         <v>1.95</v>
@@ -52262,7 +52262,7 @@
         <v>2.19</v>
       </c>
       <c r="AT255" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU255" t="n">
         <v>1.8</v>
@@ -53477,7 +53477,7 @@
         <v>1.14</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT261" t="n">
         <v>1.13</v>
@@ -53883,7 +53883,7 @@
         <v>1.5</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT263" t="n">
         <v>1.6</v>
@@ -54089,7 +54089,7 @@
         <v>2.2</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU264" t="n">
         <v>2.19</v>
@@ -54289,10 +54289,10 @@
         <v>1.07</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU265" t="n">
         <v>1.51</v>
@@ -54492,7 +54492,7 @@
         <v>1.71</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT266" t="n">
         <v>1.6</v>
@@ -54698,7 +54698,7 @@
         <v>2.13</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU267" t="n">
         <v>1.97</v>
@@ -54901,7 +54901,7 @@
         <v>1.6</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU268" t="n">
         <v>1.56</v>
@@ -55101,7 +55101,7 @@
         <v>0.64</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT269" t="n">
         <v>0.5600000000000001</v>
@@ -55304,7 +55304,7 @@
         <v>1.86</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT270" t="n">
         <v>1.93</v>
@@ -55510,7 +55510,7 @@
         <v>2.25</v>
       </c>
       <c r="AT271" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU271" t="n">
         <v>1.81</v>
@@ -57389,6 +57389,1021 @@
       </c>
       <c r="BK280" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2467876</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45058.5625</v>
+      </c>
+      <c r="F281" t="n">
+        <v>32</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>3</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['17', '37']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>7</v>
+      </c>
+      <c r="R281" t="n">
+        <v>5</v>
+      </c>
+      <c r="S281" t="n">
+        <v>12</v>
+      </c>
+      <c r="T281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2467878</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45058.5625</v>
+      </c>
+      <c r="F282" t="n">
+        <v>32</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>2</v>
+      </c>
+      <c r="N282" t="n">
+        <v>4</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['34', '68']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['54', '81']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>6</v>
+      </c>
+      <c r="R282" t="n">
+        <v>6</v>
+      </c>
+      <c r="S282" t="n">
+        <v>12</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X282" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2467874</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45059.33333333334</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['17', '69']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>1</v>
+      </c>
+      <c r="R283" t="n">
+        <v>6</v>
+      </c>
+      <c r="S283" t="n">
+        <v>7</v>
+      </c>
+      <c r="T283" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V283" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X283" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2467871</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45059.33333333334</v>
+      </c>
+      <c r="F284" t="n">
+        <v>32</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2</v>
+      </c>
+      <c r="M284" t="n">
+        <v>2</v>
+      </c>
+      <c r="N284" t="n">
+        <v>4</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['23', '54']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['10', '47']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>8</v>
+      </c>
+      <c r="R284" t="n">
+        <v>1</v>
+      </c>
+      <c r="S284" t="n">
+        <v>9</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2467879</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45059.33333333334</v>
+      </c>
+      <c r="F285" t="n">
+        <v>32</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>2</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['15', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>5</v>
+      </c>
+      <c r="R285" t="n">
+        <v>5</v>
+      </c>
+      <c r="S285" t="n">
+        <v>10</v>
+      </c>
+      <c r="T285" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X285" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT4" t="n">
         <v>0.6899999999999999</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9399999999999999</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT16" t="n">
         <v>1.31</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2.06</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -7196,7 +7196,7 @@
         <v>1.13</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT35" t="n">
         <v>1.31</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5600000000000001</v>
@@ -8211,7 +8211,7 @@
         <v>2.06</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT40" t="n">
         <v>1.31</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT41" t="n">
         <v>0.9399999999999999</v>
@@ -10444,7 +10444,7 @@
         <v>2.19</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU52" t="n">
         <v>1.36</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT54" t="n">
         <v>0.63</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT59" t="n">
         <v>1.31</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
         <v>1.31</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU66" t="n">
         <v>1.58</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5600000000000001</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14504,7 +14504,7 @@
         <v>1.69</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT71" t="n">
         <v>0.75</v>
@@ -15316,7 +15316,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT81" t="n">
         <v>1.31</v>
@@ -17343,10 +17343,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU83" t="n">
         <v>2.6</v>
@@ -17546,10 +17546,10 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -18358,10 +18358,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT93" t="n">
         <v>0.63</v>
@@ -21200,10 +21200,10 @@
         <v>3</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU102" t="n">
         <v>2.09</v>
@@ -21609,7 +21609,7 @@
         <v>1.69</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU104" t="n">
         <v>2.36</v>
@@ -22012,7 +22012,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT106" t="n">
         <v>0.9399999999999999</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT108" t="n">
         <v>0.75</v>
@@ -22624,7 +22624,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT112" t="n">
         <v>0.75</v>
@@ -24654,7 +24654,7 @@
         <v>1.19</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT122" t="n">
         <v>1.31</v>
@@ -25666,10 +25666,10 @@
         <v>2.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU125" t="n">
         <v>2.42</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT126" t="n">
         <v>0.9399999999999999</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT137" t="n">
         <v>1.31</v>
@@ -28508,7 +28508,7 @@
         <v>0.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT138" t="n">
         <v>0.9399999999999999</v>
@@ -28711,7 +28711,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT139" t="n">
         <v>1.13</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT144" t="n">
         <v>0.75</v>
@@ -29932,7 +29932,7 @@
         <v>1.19</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT160" t="n">
         <v>1.31</v>
@@ -33786,7 +33786,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU165" t="n">
         <v>1.52</v>
@@ -34192,7 +34192,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT166" t="n">
         <v>0.9399999999999999</v>
@@ -34601,7 +34601,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -35007,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU170" t="n">
         <v>1.64</v>
@@ -35207,7 +35207,7 @@
         <v>1.22</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -36019,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT175" t="n">
         <v>1.13</v>
@@ -36631,7 +36631,7 @@
         <v>2.31</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU178" t="n">
         <v>1.76</v>
@@ -37034,7 +37034,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT180" t="n">
         <v>1.31</v>
@@ -37643,7 +37643,7 @@
         <v>1.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT183" t="n">
         <v>1.31</v>
@@ -37846,7 +37846,7 @@
         <v>1.1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -40285,7 +40285,7 @@
         <v>2.19</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU196" t="n">
         <v>1.84</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT197" t="n">
         <v>1.31</v>
@@ -40688,7 +40688,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT198" t="n">
         <v>1.31</v>
@@ -40894,7 +40894,7 @@
         <v>1.13</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41297,7 +41297,7 @@
         <v>0.82</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT201" t="n">
         <v>1.31</v>
@@ -41703,7 +41703,7 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT203" t="n">
         <v>1.13</v>
@@ -42112,7 +42112,7 @@
         <v>2.31</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU205" t="n">
         <v>1.85</v>
@@ -43330,7 +43330,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU211" t="n">
         <v>1.63</v>
@@ -43530,7 +43530,7 @@
         <v>0.55</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT212" t="n">
         <v>0.63</v>
@@ -43939,7 +43939,7 @@
         <v>2.25</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44142,7 +44142,7 @@
         <v>1.69</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU215" t="n">
         <v>1.96</v>
@@ -44545,7 +44545,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT217" t="n">
         <v>1.31</v>
@@ -45560,7 +45560,7 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT222" t="n">
         <v>1.13</v>
@@ -46578,7 +46578,7 @@
         <v>2.25</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -46781,7 +46781,7 @@
         <v>1.5</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU228" t="n">
         <v>1.71</v>
@@ -46981,7 +46981,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT229" t="n">
         <v>0.5600000000000001</v>
@@ -47184,7 +47184,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT230" t="n">
         <v>0.75</v>
@@ -47593,7 +47593,7 @@
         <v>1.5</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU232" t="n">
         <v>1.51</v>
@@ -47996,7 +47996,7 @@
         <v>0.5</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT234" t="n">
         <v>0.63</v>
@@ -50026,7 +50026,7 @@
         <v>1.23</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT244" t="n">
         <v>1.31</v>
@@ -50432,10 +50432,10 @@
         <v>1.38</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU246" t="n">
         <v>1.54</v>
@@ -51041,7 +51041,7 @@
         <v>1.15</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT249" t="n">
         <v>1.31</v>
@@ -51247,7 +51247,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU250" t="n">
         <v>1.5</v>
@@ -51450,7 +51450,7 @@
         <v>2.25</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU251" t="n">
         <v>1.87</v>
@@ -51853,7 +51853,7 @@
         <v>0.62</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT253" t="n">
         <v>0.75</v>
@@ -53680,7 +53680,7 @@
         <v>1.36</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT262" t="n">
         <v>1.31</v>
@@ -53886,7 +53886,7 @@
         <v>1.75</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU263" t="n">
         <v>1.73</v>
@@ -54086,7 +54086,7 @@
         <v>0.79</v>
       </c>
       <c r="AS264" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT264" t="n">
         <v>0.75</v>
@@ -54495,7 +54495,7 @@
         <v>1.19</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU266" t="n">
         <v>1.68</v>
@@ -54695,7 +54695,7 @@
         <v>0.86</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT267" t="n">
         <v>0.9399999999999999</v>
@@ -54898,7 +54898,7 @@
         <v>0.71</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT268" t="n">
         <v>0.6899999999999999</v>
@@ -55307,7 +55307,7 @@
         <v>1.38</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU270" t="n">
         <v>1.92</v>
@@ -58404,6 +58404,818 @@
       </c>
       <c r="BK285" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2467872</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>32</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>7</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2467873</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45060.35416666666</v>
+      </c>
+      <c r="F287" t="n">
+        <v>32</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3</v>
+      </c>
+      <c r="L287" t="n">
+        <v>3</v>
+      </c>
+      <c r="M287" t="n">
+        <v>2</v>
+      </c>
+      <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['26', '50', '52']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['30', '37']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>5</v>
+      </c>
+      <c r="R287" t="n">
+        <v>3</v>
+      </c>
+      <c r="S287" t="n">
+        <v>8</v>
+      </c>
+      <c r="T287" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2467875</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45060.35416666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>32</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>3</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['10', '31']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2</v>
+      </c>
+      <c r="R288" t="n">
+        <v>7</v>
+      </c>
+      <c r="S288" t="n">
+        <v>9</v>
+      </c>
+      <c r="T288" t="n">
+        <v>4</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2467877</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45060.35416666666</v>
+      </c>
+      <c r="F289" t="n">
+        <v>32</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>4</v>
+      </c>
+      <c r="K289" t="n">
+        <v>4</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>5</v>
+      </c>
+      <c r="N289" t="n">
+        <v>6</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['4', '17', '29', '45+1', '81']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>6</v>
+      </c>
+      <c r="R289" t="n">
+        <v>4</v>
+      </c>
+      <c r="S289" t="n">
+        <v>10</v>
+      </c>
+      <c r="T289" t="n">
+        <v>4</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V289" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X289" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT10" t="n">
         <v>1.69</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT13" t="n">
         <v>0.75</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>1.31</v>
@@ -3745,7 +3745,7 @@
         <v>1.69</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.69</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT18" t="n">
         <v>1.31</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT27" t="n">
         <v>1.81</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU30" t="n">
         <v>1.3</v>
@@ -6790,7 +6790,7 @@
         <v>1.69</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU31" t="n">
         <v>2.53</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT33" t="n">
         <v>1.69</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT34" t="n">
         <v>1.31</v>
@@ -7602,7 +7602,7 @@
         <v>2.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -7805,7 +7805,7 @@
         <v>2.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8008,7 +8008,7 @@
         <v>1.69</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT38" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT44" t="n">
         <v>0.9399999999999999</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU45" t="n">
         <v>1.61</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT47" t="n">
         <v>0.75</v>
@@ -10241,7 +10241,7 @@
         <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10647,7 +10647,7 @@
         <v>2.06</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU50" t="n">
         <v>2.15</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -11459,7 +11459,7 @@
         <v>1.69</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU55" t="n">
         <v>1.78</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT56" t="n">
         <v>0.6899999999999999</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT57" t="n">
         <v>1.13</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU58" t="n">
         <v>2.14</v>
@@ -12677,7 +12677,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT61" t="n">
         <v>0.9399999999999999</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT63" t="n">
         <v>0.9399999999999999</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT66" t="n">
         <v>1.69</v>
@@ -14098,7 +14098,7 @@
         <v>2.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14910,7 +14910,7 @@
         <v>2.06</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU71" t="n">
         <v>2.15</v>
@@ -15113,7 +15113,7 @@
         <v>1.19</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT75" t="n">
         <v>0.9399999999999999</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT76" t="n">
         <v>0.6899999999999999</v>
@@ -16125,7 +16125,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT77" t="n">
         <v>1.31</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT79" t="n">
         <v>1.13</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT80" t="n">
         <v>1.31</v>
@@ -16940,7 +16940,7 @@
         <v>1.19</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU81" t="n">
         <v>1.13</v>
@@ -17143,7 +17143,7 @@
         <v>1.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU82" t="n">
         <v>1.98</v>
@@ -17752,7 +17752,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
         <v>1.31</v>
@@ -18970,7 +18970,7 @@
         <v>1.19</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT92" t="n">
         <v>0.9399999999999999</v>
@@ -19376,7 +19376,7 @@
         <v>1.19</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT95" t="n">
         <v>1.13</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU96" t="n">
         <v>1.83</v>
@@ -20185,7 +20185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT97" t="n">
         <v>1.31</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22421,7 +22421,7 @@
         <v>2.25</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU108" t="n">
         <v>2.51</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT110" t="n">
         <v>1.31</v>
@@ -23233,7 +23233,7 @@
         <v>1.19</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU112" t="n">
         <v>1.19</v>
@@ -23636,10 +23636,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,10 +23839,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24245,10 +24245,10 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24448,10 +24448,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
         <v>1.13</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU129" t="n">
         <v>1.54</v>
@@ -26887,7 +26887,7 @@
         <v>2.25</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU131" t="n">
         <v>1.8</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT133" t="n">
         <v>1.31</v>
@@ -27696,10 +27696,10 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -27902,7 +27902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -30335,7 +30335,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30541,7 +30541,7 @@
         <v>1.69</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU148" t="n">
         <v>2.02</v>
@@ -30741,10 +30741,10 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.97</v>
@@ -30944,10 +30944,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT151" t="n">
         <v>1.31</v>
@@ -31350,10 +31350,10 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -31556,7 +31556,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU153" t="n">
         <v>1.68</v>
@@ -31756,10 +31756,10 @@
         <v>1.25</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>2.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU155" t="n">
         <v>1.78</v>
@@ -32165,7 +32165,7 @@
         <v>1.69</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU156" t="n">
         <v>1.94</v>
@@ -32365,10 +32365,10 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32568,7 +32568,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT158" t="n">
         <v>1.31</v>
@@ -32771,10 +32771,10 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -33177,10 +33177,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU161" t="n">
         <v>1.55</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT162" t="n">
         <v>0.75</v>
@@ -33586,7 +33586,7 @@
         <v>1.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU163" t="n">
         <v>1.71</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT168" t="n">
         <v>1.5</v>
@@ -35613,7 +35613,7 @@
         <v>1.22</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT173" t="n">
         <v>1.31</v>
@@ -35819,7 +35819,7 @@
         <v>1.69</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36022,7 +36022,7 @@
         <v>1.69</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36225,7 +36225,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU176" t="n">
         <v>1.79</v>
@@ -36425,10 +36425,10 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU177" t="n">
         <v>1.86</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT178" t="n">
         <v>1.69</v>
@@ -36831,7 +36831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT179" t="n">
         <v>0.75</v>
@@ -37240,7 +37240,7 @@
         <v>2.25</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU181" t="n">
         <v>1.85</v>
@@ -37440,7 +37440,7 @@
         <v>1.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT182" t="n">
         <v>1.31</v>
@@ -38052,7 +38052,7 @@
         <v>1.19</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU185" t="n">
         <v>1.66</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT189" t="n">
         <v>0.9399999999999999</v>
@@ -39064,7 +39064,7 @@
         <v>0.9</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT190" t="n">
         <v>0.6899999999999999</v>
@@ -39270,7 +39270,7 @@
         <v>1.69</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39676,7 +39676,7 @@
         <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU193" t="n">
         <v>1.54</v>
@@ -39876,10 +39876,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU194" t="n">
         <v>1.96</v>
@@ -40082,7 +40082,7 @@
         <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU195" t="n">
         <v>1.73</v>
@@ -40282,7 +40282,7 @@
         <v>2.2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT196" t="n">
         <v>1.69</v>
@@ -40691,7 +40691,7 @@
         <v>1.69</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU198" t="n">
         <v>1.52</v>
@@ -40891,7 +40891,7 @@
         <v>1.3</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT199" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>2.25</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU201" t="n">
         <v>2.25</v>
@@ -41906,7 +41906,7 @@
         <v>0.82</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT204" t="n">
         <v>0.6899999999999999</v>
@@ -42109,7 +42109,7 @@
         <v>2.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT205" t="n">
         <v>1.81</v>
@@ -42718,7 +42718,7 @@
         <v>0.73</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT208" t="n">
         <v>0.9399999999999999</v>
@@ -42924,7 +42924,7 @@
         <v>1.5</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU209" t="n">
         <v>1.53</v>
@@ -43327,7 +43327,7 @@
         <v>2.09</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT211" t="n">
         <v>1.81</v>
@@ -43533,7 +43533,7 @@
         <v>2.06</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU212" t="n">
         <v>2.09</v>
@@ -43736,7 +43736,7 @@
         <v>1.19</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -44342,10 +44342,10 @@
         <v>0.55</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU216" t="n">
         <v>1.97</v>
@@ -44748,7 +44748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT218" t="n">
         <v>0.6899999999999999</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT219" t="n">
         <v>0.9399999999999999</v>
@@ -45157,7 +45157,7 @@
         <v>1.75</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU220" t="n">
         <v>1.78</v>
@@ -45357,7 +45357,7 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT221" t="n">
         <v>1.31</v>
@@ -45563,7 +45563,7 @@
         <v>1.19</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU222" t="n">
         <v>1.44</v>
@@ -45763,7 +45763,7 @@
         <v>1.58</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT223" t="n">
         <v>1.31</v>
@@ -45966,7 +45966,7 @@
         <v>1.08</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT224" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46984,7 +46984,7 @@
         <v>2.06</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU229" t="n">
         <v>2.04</v>
@@ -47187,7 +47187,7 @@
         <v>1.69</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47999,7 +47999,7 @@
         <v>2.25</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU234" t="n">
         <v>2.2</v>
@@ -48199,7 +48199,7 @@
         <v>0.75</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT235" t="n">
         <v>0.9399999999999999</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT236" t="n">
         <v>1</v>
@@ -48808,7 +48808,7 @@
         <v>1.46</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT238" t="n">
         <v>1.31</v>
@@ -49011,10 +49011,10 @@
         <v>1.15</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU239" t="n">
         <v>1.87</v>
@@ -49214,7 +49214,7 @@
         <v>1.23</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT240" t="n">
         <v>1.13</v>
@@ -49417,10 +49417,10 @@
         <v>1.23</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU241" t="n">
         <v>1.84</v>
@@ -49826,7 +49826,7 @@
         <v>1</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU243" t="n">
         <v>1.39</v>
@@ -50029,7 +50029,7 @@
         <v>1.19</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU244" t="n">
         <v>1.4</v>
@@ -50232,7 +50232,7 @@
         <v>1.75</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU245" t="n">
         <v>1.76</v>
@@ -50638,7 +50638,7 @@
         <v>1.19</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU247" t="n">
         <v>1.67</v>
@@ -50838,7 +50838,7 @@
         <v>0.77</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT248" t="n">
         <v>0.6899999999999999</v>
@@ -52056,10 +52056,10 @@
         <v>1.29</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU254" t="n">
         <v>1.96</v>
@@ -52259,7 +52259,7 @@
         <v>1.15</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT255" t="n">
         <v>0.9399999999999999</v>
@@ -52462,7 +52462,7 @@
         <v>0.93</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT256" t="n">
         <v>1</v>
@@ -52668,7 +52668,7 @@
         <v>1</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU257" t="n">
         <v>1.54</v>
@@ -53071,10 +53071,10 @@
         <v>1.21</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU259" t="n">
         <v>1.71</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT260" t="n">
         <v>1.31</v>
@@ -53480,7 +53480,7 @@
         <v>1</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU261" t="n">
         <v>1.33</v>
@@ -55104,7 +55104,7 @@
         <v>1</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU269" t="n">
         <v>1.3</v>
@@ -55304,7 +55304,7 @@
         <v>1.86</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT270" t="n">
         <v>1.81</v>
@@ -55710,10 +55710,10 @@
         <v>0.6</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU272" t="n">
         <v>1.6</v>
@@ -55913,10 +55913,10 @@
         <v>1.13</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU273" t="n">
         <v>1.92</v>
@@ -56525,7 +56525,7 @@
         <v>1</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU276" t="n">
         <v>1.5</v>
@@ -56725,10 +56725,10 @@
         <v>1.2</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU277" t="n">
         <v>1.78</v>
@@ -56928,10 +56928,10 @@
         <v>1.33</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU278" t="n">
         <v>1.82</v>
@@ -57334,10 +57334,10 @@
         <v>0.8</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU280" t="n">
         <v>1.71</v>
@@ -57943,7 +57943,7 @@
         <v>1</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT283" t="n">
         <v>0.9399999999999999</v>
@@ -59216,6 +59216,1224 @@
       </c>
       <c r="BK289" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2467882</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45065.5625</v>
+      </c>
+      <c r="F290" t="n">
+        <v>33</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>5</v>
+      </c>
+      <c r="R290" t="n">
+        <v>4</v>
+      </c>
+      <c r="S290" t="n">
+        <v>9</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V290" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X290" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2467885</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45065.5625</v>
+      </c>
+      <c r="F291" t="n">
+        <v>33</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>3</v>
+      </c>
+      <c r="M291" t="n">
+        <v>4</v>
+      </c>
+      <c r="N291" t="n">
+        <v>7</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['28', '78', '90+3']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['39', '53', '61', '74']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>9</v>
+      </c>
+      <c r="R291" t="n">
+        <v>5</v>
+      </c>
+      <c r="S291" t="n">
+        <v>14</v>
+      </c>
+      <c r="T291" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V291" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X291" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2467880</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45066.33333333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>33</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>3</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" t="n">
+        <v>4</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['8', '36']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['24', '58']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2</v>
+      </c>
+      <c r="S292" t="n">
+        <v>8</v>
+      </c>
+      <c r="T292" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2467883</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45066.33333333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>33</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>13</v>
+      </c>
+      <c r="R293" t="n">
+        <v>1</v>
+      </c>
+      <c r="S293" t="n">
+        <v>14</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V293" t="n">
+        <v>7</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2467888</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45066.33333333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>33</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>2</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['21', '49']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>8</v>
+      </c>
+      <c r="R294" t="n">
+        <v>5</v>
+      </c>
+      <c r="S294" t="n">
+        <v>13</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V294" t="n">
+        <v>4</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2467881</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45066.64583333334</v>
+      </c>
+      <c r="F295" t="n">
+        <v>33</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>2</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['27', '69']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>1</v>
+      </c>
+      <c r="R295" t="n">
+        <v>7</v>
+      </c>
+      <c r="S295" t="n">
+        <v>8</v>
+      </c>
+      <c r="T295" t="n">
+        <v>2</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V295" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK295"/>
+  <dimension ref="A1:BK298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT12" t="n">
         <v>1.12</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT14" t="n">
         <v>0.59</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT17" t="n">
         <v>1.24</v>
@@ -4151,7 +4151,7 @@
         <v>2.12</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT31" t="n">
         <v>0.71</v>
@@ -7399,7 +7399,7 @@
         <v>2.24</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT36" t="n">
         <v>0.59</v>
@@ -9835,7 +9835,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT48" t="n">
         <v>0.71</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU51" t="n">
         <v>2.57</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT52" t="n">
         <v>1.69</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9399999999999999</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -16737,7 +16737,7 @@
         <v>2.35</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -17955,7 +17955,7 @@
         <v>1.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.96</v>
@@ -18155,7 +18155,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT87" t="n">
         <v>0.9399999999999999</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT90" t="n">
         <v>0.6899999999999999</v>
@@ -20188,7 +20188,7 @@
         <v>2.12</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT100" t="n">
         <v>1.31</v>
@@ -21000,7 +21000,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.81</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT103" t="n">
         <v>0.6899999999999999</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT104" t="n">
         <v>1.81</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT116" t="n">
         <v>1.13</v>
@@ -25263,7 +25263,7 @@
         <v>1.19</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -26884,7 +26884,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT130" t="n">
         <v>1.41</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT132" t="n">
         <v>1.31</v>
@@ -27496,7 +27496,7 @@
         <v>1.12</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT135" t="n">
         <v>1.24</v>
@@ -30132,10 +30132,10 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30538,7 +30538,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT148" t="n">
         <v>1.41</v>
@@ -31150,7 +31150,7 @@
         <v>1.41</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
         <v>1.12</v>
@@ -31959,7 +31959,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT155" t="n">
         <v>1.24</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT156" t="n">
         <v>1.12</v>
@@ -32571,7 +32571,7 @@
         <v>2.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU158" t="n">
         <v>1.74</v>
@@ -32977,7 +32977,7 @@
         <v>1.69</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU160" t="n">
         <v>1.5</v>
@@ -33583,7 +33583,7 @@
         <v>0.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT163" t="n">
         <v>1.41</v>
@@ -35616,7 +35616,7 @@
         <v>1.12</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -35816,7 +35816,7 @@
         <v>0.67</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT174" t="n">
         <v>0.59</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT176" t="n">
         <v>0.71</v>
@@ -37037,7 +37037,7 @@
         <v>2.06</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU180" t="n">
         <v>2.11</v>
@@ -37237,7 +37237,7 @@
         <v>0.8</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT181" t="n">
         <v>0.71</v>
@@ -37646,7 +37646,7 @@
         <v>2.25</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU183" t="n">
         <v>2.29</v>
@@ -39267,7 +39267,7 @@
         <v>0.6</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT191" t="n">
         <v>0.71</v>
@@ -39470,7 +39470,7 @@
         <v>0.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT192" t="n">
         <v>0.75</v>
@@ -40079,7 +40079,7 @@
         <v>0.73</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT195" t="n">
         <v>0.71</v>
@@ -40488,7 +40488,7 @@
         <v>2.06</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU197" t="n">
         <v>2.09</v>
@@ -41097,7 +41097,7 @@
         <v>1.19</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU200" t="n">
         <v>1.63</v>
@@ -43124,7 +43124,7 @@
         <v>0.64</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT210" t="n">
         <v>0.75</v>
@@ -43936,7 +43936,7 @@
         <v>1.45</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT214" t="n">
         <v>1.5</v>
@@ -44139,7 +44139,7 @@
         <v>2.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT215" t="n">
         <v>1.69</v>
@@ -44548,7 +44548,7 @@
         <v>1.69</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU217" t="n">
         <v>1.55</v>
@@ -45766,7 +45766,7 @@
         <v>2.24</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU223" t="n">
         <v>1.83</v>
@@ -46575,7 +46575,7 @@
         <v>1.92</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT227" t="n">
         <v>1.69</v>
@@ -46778,7 +46778,7 @@
         <v>1.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT228" t="n">
         <v>1.81</v>
@@ -47387,7 +47387,7 @@
         <v>0.58</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT231" t="n">
         <v>0.75</v>
@@ -47796,7 +47796,7 @@
         <v>1.19</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU233" t="n">
         <v>1.62</v>
@@ -48605,7 +48605,7 @@
         <v>1.17</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT237" t="n">
         <v>0.9399999999999999</v>
@@ -48811,7 +48811,7 @@
         <v>1.41</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU238" t="n">
         <v>1.74</v>
@@ -51044,7 +51044,7 @@
         <v>2.25</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU249" t="n">
         <v>2.15</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT251" t="n">
         <v>1.81</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT252" t="n">
         <v>0.9399999999999999</v>
@@ -52868,7 +52868,7 @@
         <v>1.21</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT258" t="n">
         <v>1.13</v>
@@ -53683,7 +53683,7 @@
         <v>1.19</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU262" t="n">
         <v>1.39</v>
@@ -54292,7 +54292,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU265" t="n">
         <v>1.51</v>
@@ -55507,7 +55507,7 @@
         <v>1.07</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT271" t="n">
         <v>0.9399999999999999</v>
@@ -56116,7 +56116,7 @@
         <v>1.4</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT274" t="n">
         <v>1.31</v>
@@ -56319,7 +56319,7 @@
         <v>1.07</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT275" t="n">
         <v>1</v>
@@ -57131,10 +57131,10 @@
         <v>1.33</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57540,7 +57540,7 @@
         <v>1</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU281" t="n">
         <v>1.29</v>
@@ -60434,6 +60434,615 @@
       </c>
       <c r="BK295" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2467884</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45067.35416666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>33</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>1</v>
+      </c>
+      <c r="S296" t="n">
+        <v>6</v>
+      </c>
+      <c r="T296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V296" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2467886</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45067.35416666666</v>
+      </c>
+      <c r="F297" t="n">
+        <v>33</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2</v>
+      </c>
+      <c r="K297" t="n">
+        <v>3</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3</v>
+      </c>
+      <c r="M297" t="n">
+        <v>3</v>
+      </c>
+      <c r="N297" t="n">
+        <v>6</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['30', '52', '77']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['12', '21', '89']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>4</v>
+      </c>
+      <c r="S297" t="n">
+        <v>9</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2467887</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45067.35416666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>33</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['70', '90+5']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>1</v>
+      </c>
+      <c r="R298" t="n">
+        <v>8</v>
+      </c>
+      <c r="S298" t="n">
+        <v>9</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V298" t="n">
+        <v>4</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK298"/>
+  <dimension ref="A1:BK307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9399999999999999</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.41</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.35</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT16" t="n">
         <v>1.41</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT20" t="n">
         <v>0.9399999999999999</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2.12</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -5978,7 +5978,7 @@
         <v>1.41</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT28" t="n">
         <v>1.41</v>
@@ -6384,7 +6384,7 @@
         <v>1.47</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT30" t="n">
         <v>1.12</v>
@@ -6993,7 +6993,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU32" t="n">
         <v>1.39</v>
@@ -7196,7 +7196,7 @@
         <v>1.12</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.24</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -8211,7 +8211,7 @@
         <v>2.12</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT41" t="n">
         <v>0.9399999999999999</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.3</v>
@@ -9226,7 +9226,7 @@
         <v>1.41</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU43" t="n">
         <v>1.57</v>
@@ -9429,7 +9429,7 @@
         <v>2.35</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT45" t="n">
         <v>1.41</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT46" t="n">
         <v>1.24</v>
@@ -10038,7 +10038,7 @@
         <v>1.12</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU47" t="n">
         <v>1.44</v>
@@ -10444,7 +10444,7 @@
         <v>2.24</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.12</v>
@@ -11053,7 +11053,7 @@
         <v>1.47</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU52" t="n">
         <v>1.36</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT53" t="n">
         <v>1.24</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT54" t="n">
         <v>0.59</v>
@@ -11865,7 +11865,7 @@
         <v>1.41</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12068,7 +12068,7 @@
         <v>2.35</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU57" t="n">
         <v>2.18</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT58" t="n">
         <v>1.41</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT60" t="n">
         <v>1.24</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2.24</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT64" t="n">
         <v>1.24</v>
@@ -13692,7 +13692,7 @@
         <v>1.47</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -13895,7 +13895,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU66" t="n">
         <v>1.58</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.63</v>
@@ -14504,7 +14504,7 @@
         <v>1.76</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.71</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT72" t="n">
         <v>0.59</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>2.24</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU76" t="n">
         <v>1.68</v>
@@ -16128,7 +16128,7 @@
         <v>1.12</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT78" t="n">
         <v>1.24</v>
@@ -16534,7 +16534,7 @@
         <v>2.12</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT81" t="n">
         <v>1.41</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT82" t="n">
         <v>1.12</v>
@@ -17343,10 +17343,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU83" t="n">
         <v>2.6</v>
@@ -17546,10 +17546,10 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT85" t="n">
         <v>0.71</v>
@@ -18158,7 +18158,7 @@
         <v>2.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU87" t="n">
         <v>1.61</v>
@@ -18358,10 +18358,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -18561,10 +18561,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -18767,7 +18767,7 @@
         <v>1.76</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU90" t="n">
         <v>2.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT91" t="n">
         <v>0.71</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT93" t="n">
         <v>0.59</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT94" t="n">
         <v>1.12</v>
@@ -19782,7 +19782,7 @@
         <v>2.24</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU95" t="n">
         <v>1.59</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
         <v>1.24</v>
@@ -20797,7 +20797,7 @@
         <v>1.47</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT101" t="n">
         <v>1.29</v>
@@ -21200,10 +21200,10 @@
         <v>3</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU102" t="n">
         <v>2.09</v>
@@ -21406,7 +21406,7 @@
         <v>2.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21609,7 +21609,7 @@
         <v>1.76</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU104" t="n">
         <v>2.36</v>
@@ -21809,10 +21809,10 @@
         <v>0.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.78</v>
@@ -22012,10 +22012,10 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT107" t="n">
         <v>0.71</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT108" t="n">
         <v>0.71</v>
@@ -22624,7 +22624,7 @@
         <v>1.29</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22827,7 +22827,7 @@
         <v>2.24</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT111" t="n">
         <v>1.24</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT112" t="n">
         <v>0.71</v>
@@ -24045,7 +24045,7 @@
         <v>1.76</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU116" t="n">
         <v>2.15</v>
@@ -24651,10 +24651,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,10 +24854,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25060,7 +25060,7 @@
         <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT122" t="n">
         <v>1.29</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25666,10 +25666,10 @@
         <v>2.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU125" t="n">
         <v>2.42</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT126" t="n">
         <v>0.9399999999999999</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU127" t="n">
         <v>1.42</v>
@@ -26681,7 +26681,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT129" t="n">
         <v>0.71</v>
@@ -27293,7 +27293,7 @@
         <v>1.76</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -28305,10 +28305,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -28508,10 +28508,10 @@
         <v>0.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU138" t="n">
         <v>2.36</v>
@@ -28711,10 +28711,10 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU139" t="n">
         <v>1.49</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT140" t="n">
         <v>0.9399999999999999</v>
@@ -29117,10 +29117,10 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29523,10 +29523,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -29726,10 +29726,10 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -29929,10 +29929,10 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT160" t="n">
         <v>1.24</v>
@@ -33383,7 +33383,7 @@
         <v>2.12</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU162" t="n">
         <v>2.01</v>
@@ -33786,10 +33786,10 @@
         <v>1.11</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU164" t="n">
         <v>2.28</v>
@@ -33989,10 +33989,10 @@
         <v>2.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU165" t="n">
         <v>1.52</v>
@@ -34192,10 +34192,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,10 +34395,10 @@
         <v>1.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU167" t="n">
         <v>1.51</v>
@@ -34601,7 +34601,7 @@
         <v>1.41</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35004,10 +35004,10 @@
         <v>2.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU170" t="n">
         <v>1.64</v>
@@ -35207,7 +35207,7 @@
         <v>1.22</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35410,7 +35410,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
         <v>0.9399999999999999</v>
@@ -36019,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT175" t="n">
         <v>1.12</v>
@@ -36631,7 +36631,7 @@
         <v>2.35</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU178" t="n">
         <v>1.76</v>
@@ -36834,7 +36834,7 @@
         <v>2.24</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU179" t="n">
         <v>1.72</v>
@@ -37034,7 +37034,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT180" t="n">
         <v>1.24</v>
@@ -37443,7 +37443,7 @@
         <v>1.41</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37643,7 +37643,7 @@
         <v>1.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT183" t="n">
         <v>1.24</v>
@@ -37846,7 +37846,7 @@
         <v>1.1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>0.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT185" t="n">
         <v>1.41</v>
@@ -38252,10 +38252,10 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU186" t="n">
         <v>1.87</v>
@@ -38455,10 +38455,10 @@
         <v>2.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38658,7 +38658,7 @@
         <v>0.89</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT188" t="n">
         <v>0.9399999999999999</v>
@@ -38864,7 +38864,7 @@
         <v>2.12</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU189" t="n">
         <v>2</v>
@@ -39067,7 +39067,7 @@
         <v>2.35</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU190" t="n">
         <v>1.84</v>
@@ -39473,7 +39473,7 @@
         <v>2.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU192" t="n">
         <v>1.94</v>
@@ -39673,7 +39673,7 @@
         <v>0.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT193" t="n">
         <v>0.59</v>
@@ -40285,7 +40285,7 @@
         <v>2.24</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU196" t="n">
         <v>1.84</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT197" t="n">
         <v>1.29</v>
@@ -40688,7 +40688,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT198" t="n">
         <v>1.24</v>
@@ -40894,7 +40894,7 @@
         <v>1.12</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41094,7 +41094,7 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT200" t="n">
         <v>1.24</v>
@@ -41297,7 +41297,7 @@
         <v>0.82</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT201" t="n">
         <v>1.41</v>
@@ -41500,10 +41500,10 @@
         <v>1.45</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41703,10 +41703,10 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU203" t="n">
         <v>1.45</v>
@@ -41909,7 +41909,7 @@
         <v>2.12</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42112,7 +42112,7 @@
         <v>2.35</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU205" t="n">
         <v>1.85</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT206" t="n">
         <v>0.9399999999999999</v>
@@ -42515,7 +42515,7 @@
         <v>1.09</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT207" t="n">
         <v>1</v>
@@ -42721,7 +42721,7 @@
         <v>1.41</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42921,7 +42921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT209" t="n">
         <v>0.71</v>
@@ -43127,7 +43127,7 @@
         <v>1.47</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU210" t="n">
         <v>1.67</v>
@@ -43330,7 +43330,7 @@
         <v>1.12</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU211" t="n">
         <v>1.63</v>
@@ -43530,7 +43530,7 @@
         <v>0.55</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT212" t="n">
         <v>0.59</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT213" t="n">
         <v>1.12</v>
@@ -43939,7 +43939,7 @@
         <v>2.18</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44142,7 +44142,7 @@
         <v>1.76</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU215" t="n">
         <v>1.96</v>
@@ -44545,7 +44545,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT217" t="n">
         <v>1.29</v>
@@ -44751,7 +44751,7 @@
         <v>1.12</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT220" t="n">
         <v>1.24</v>
@@ -45360,7 +45360,7 @@
         <v>2.12</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU221" t="n">
         <v>1.93</v>
@@ -45560,7 +45560,7 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT222" t="n">
         <v>1.12</v>
@@ -46169,10 +46169,10 @@
         <v>1.08</v>
       </c>
       <c r="AS225" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT226" t="n">
         <v>1.41</v>
@@ -46578,7 +46578,7 @@
         <v>2.18</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -46781,7 +46781,7 @@
         <v>1.47</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU228" t="n">
         <v>1.71</v>
@@ -46981,7 +46981,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT229" t="n">
         <v>0.71</v>
@@ -47184,7 +47184,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT230" t="n">
         <v>0.71</v>
@@ -47390,7 +47390,7 @@
         <v>1.76</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU231" t="n">
         <v>1.94</v>
@@ -47590,10 +47590,10 @@
         <v>1.42</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU232" t="n">
         <v>1.51</v>
@@ -47793,7 +47793,7 @@
         <v>1.25</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT233" t="n">
         <v>1.29</v>
@@ -47996,7 +47996,7 @@
         <v>0.5</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT234" t="n">
         <v>0.59</v>
@@ -48202,7 +48202,7 @@
         <v>1.29</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU235" t="n">
         <v>1.92</v>
@@ -49217,7 +49217,7 @@
         <v>1.12</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU240" t="n">
         <v>1.65</v>
@@ -49620,10 +49620,10 @@
         <v>1.38</v>
       </c>
       <c r="AS242" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU242" t="n">
         <v>1.54</v>
@@ -49823,7 +49823,7 @@
         <v>0.46</v>
       </c>
       <c r="AS243" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT243" t="n">
         <v>0.59</v>
@@ -50026,7 +50026,7 @@
         <v>1.23</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT244" t="n">
         <v>1.24</v>
@@ -50229,7 +50229,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT245" t="n">
         <v>0.71</v>
@@ -50432,10 +50432,10 @@
         <v>1.38</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU246" t="n">
         <v>1.54</v>
@@ -50635,7 +50635,7 @@
         <v>0.64</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT247" t="n">
         <v>0.71</v>
@@ -50841,7 +50841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU248" t="n">
         <v>1.9</v>
@@ -51041,7 +51041,7 @@
         <v>1.15</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT249" t="n">
         <v>1.29</v>
@@ -51244,10 +51244,10 @@
         <v>1.85</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU250" t="n">
         <v>1.5</v>
@@ -51450,7 +51450,7 @@
         <v>2.18</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU251" t="n">
         <v>1.87</v>
@@ -51653,7 +51653,7 @@
         <v>1.76</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU252" t="n">
         <v>1.94</v>
@@ -51853,10 +51853,10 @@
         <v>0.62</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU253" t="n">
         <v>1.95</v>
@@ -52665,7 +52665,7 @@
         <v>0.64</v>
       </c>
       <c r="AS257" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT257" t="n">
         <v>0.59</v>
@@ -52871,7 +52871,7 @@
         <v>1.47</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU258" t="n">
         <v>1.67</v>
@@ -53277,7 +53277,7 @@
         <v>2.35</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU260" t="n">
         <v>1.82</v>
@@ -53477,7 +53477,7 @@
         <v>1.14</v>
       </c>
       <c r="AS261" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT261" t="n">
         <v>1.12</v>
@@ -53680,7 +53680,7 @@
         <v>1.36</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT262" t="n">
         <v>1.24</v>
@@ -53883,10 +53883,10 @@
         <v>1.5</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU263" t="n">
         <v>1.73</v>
@@ -54086,10 +54086,10 @@
         <v>0.79</v>
       </c>
       <c r="AS264" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU264" t="n">
         <v>2.19</v>
@@ -54289,7 +54289,7 @@
         <v>1.07</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT265" t="n">
         <v>1.29</v>
@@ -54492,10 +54492,10 @@
         <v>1.71</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU266" t="n">
         <v>1.68</v>
@@ -54695,10 +54695,10 @@
         <v>0.86</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU267" t="n">
         <v>1.97</v>
@@ -54898,10 +54898,10 @@
         <v>0.71</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU268" t="n">
         <v>1.56</v>
@@ -55101,7 +55101,7 @@
         <v>0.64</v>
       </c>
       <c r="AS269" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT269" t="n">
         <v>0.71</v>
@@ -55307,7 +55307,7 @@
         <v>1.29</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU270" t="n">
         <v>1.92</v>
@@ -56119,7 +56119,7 @@
         <v>2.18</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU274" t="n">
         <v>1.86</v>
@@ -56522,7 +56522,7 @@
         <v>0.6</v>
       </c>
       <c r="AS276" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT276" t="n">
         <v>0.71</v>
@@ -57537,7 +57537,7 @@
         <v>1.2</v>
       </c>
       <c r="AS281" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT281" t="n">
         <v>1.29</v>
@@ -57740,10 +57740,10 @@
         <v>0.67</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU282" t="n">
         <v>1.67</v>
@@ -58146,10 +58146,10 @@
         <v>0.73</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU284" t="n">
         <v>1.71</v>
@@ -58349,10 +58349,10 @@
         <v>0.8</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU285" t="n">
         <v>1.56</v>
@@ -58552,10 +58552,10 @@
         <v>1.13</v>
       </c>
       <c r="AS286" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU286" t="n">
         <v>2</v>
@@ -58755,10 +58755,10 @@
         <v>1.6</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU287" t="n">
         <v>2.15</v>
@@ -58958,10 +58958,10 @@
         <v>1.93</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU288" t="n">
         <v>1.55</v>
@@ -59161,10 +59161,10 @@
         <v>1.6</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU289" t="n">
         <v>1.37</v>
@@ -61043,6 +61043,1833 @@
       </c>
       <c r="BK298" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2467896</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F299" t="n">
+        <v>34</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>2</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2</v>
+      </c>
+      <c r="L299" t="n">
+        <v>4</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>4</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['38', '45', '51', '67']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>7</v>
+      </c>
+      <c r="R299" t="n">
+        <v>4</v>
+      </c>
+      <c r="S299" t="n">
+        <v>11</v>
+      </c>
+      <c r="T299" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2467889</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F300" t="n">
+        <v>34</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>4</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['50', '57', '71', '78']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>3</v>
+      </c>
+      <c r="S300" t="n">
+        <v>8</v>
+      </c>
+      <c r="T300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X300" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2467890</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F301" t="n">
+        <v>34</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>2</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>4</v>
+      </c>
+      <c r="R301" t="n">
+        <v>4</v>
+      </c>
+      <c r="S301" t="n">
+        <v>8</v>
+      </c>
+      <c r="T301" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V301" t="n">
+        <v>4</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X301" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2467891</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F302" t="n">
+        <v>34</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>6</v>
+      </c>
+      <c r="R302" t="n">
+        <v>1</v>
+      </c>
+      <c r="S302" t="n">
+        <v>7</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X302" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2467892</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F303" t="n">
+        <v>34</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>3</v>
+      </c>
+      <c r="K303" t="n">
+        <v>3</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>5</v>
+      </c>
+      <c r="N303" t="n">
+        <v>6</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['21', '23', '44', '59', '62']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>6</v>
+      </c>
+      <c r="R303" t="n">
+        <v>2</v>
+      </c>
+      <c r="S303" t="n">
+        <v>8</v>
+      </c>
+      <c r="T303" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V303" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X303" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2467893</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F304" t="n">
+        <v>34</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>2</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1</v>
+      </c>
+      <c r="N304" t="n">
+        <v>3</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['58', '90+3']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>8</v>
+      </c>
+      <c r="R304" t="n">
+        <v>6</v>
+      </c>
+      <c r="S304" t="n">
+        <v>14</v>
+      </c>
+      <c r="T304" t="n">
+        <v>3</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X304" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2467894</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F305" t="n">
+        <v>34</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>2</v>
+      </c>
+      <c r="R305" t="n">
+        <v>8</v>
+      </c>
+      <c r="S305" t="n">
+        <v>10</v>
+      </c>
+      <c r="T305" t="n">
+        <v>6</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V305" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X305" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2467895</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F306" t="n">
+        <v>34</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>2</v>
+      </c>
+      <c r="M306" t="n">
+        <v>3</v>
+      </c>
+      <c r="N306" t="n">
+        <v>5</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['58', '90+3', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>4</v>
+      </c>
+      <c r="S306" t="n">
+        <v>9</v>
+      </c>
+      <c r="T306" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X306" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2467897</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45074.4375</v>
+      </c>
+      <c r="F307" t="n">
+        <v>34</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>3</v>
+      </c>
+      <c r="N307" t="n">
+        <v>3</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['17', '76', '89']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>6</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3</v>
+      </c>
+      <c r="S307" t="n">
+        <v>9</v>
+      </c>
+      <c r="T307" t="n">
+        <v>3</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
